--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/104.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/104.xlsx
@@ -479,13 +479,13 @@
         <v>-0.03544503167919593</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.621791262435459</v>
+        <v>-1.707499005467981</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1167887427278017</v>
+        <v>0.1373213990302507</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08334880938159911</v>
+        <v>-0.08222603239969033</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.01303686948509797</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.69658806608462</v>
+        <v>-1.769234218895874</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0798144848736298</v>
+        <v>0.03417484159991478</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.05913683189006016</v>
+        <v>0.003929945396741087</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.0002948361978642886</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.83014815527263</v>
+        <v>-2.02681371302185</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1043316124161687</v>
+        <v>0.05201370917463727</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.173159287549575</v>
+        <v>-0.1403753677163111</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.004063783666728641</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.998945775110676</v>
+        <v>-2.155013965668134</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08305141149117438</v>
+        <v>-0.07656396590314639</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1411302125793109</v>
+        <v>-0.08119377839941787</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.02699027430339985</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.105210265239147</v>
+        <v>-2.260772549133105</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08169940695899293</v>
+        <v>-0.1477442304311273</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1328970013946767</v>
+        <v>-0.01710204735279872</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.06986509827829944</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.898305390228384</v>
+        <v>-2.056118338254478</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2038003087055056</v>
+        <v>-0.02242830278843365</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1640777884241229</v>
+        <v>-0.02140480907670666</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.129647407935692</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.619160255775641</v>
+        <v>-1.747781732296152</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2033841949995966</v>
+        <v>-0.1568067489313976</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.175045669683029</v>
+        <v>-0.02935331088361361</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1983721160905802</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.206794493316025</v>
+        <v>-1.386761481049522</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3275087234001087</v>
+        <v>0.06849765212099648</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1495065084768541</v>
+        <v>0.01713024018664663</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2633243336808177</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7443578416267853</v>
+        <v>-1.005153091672988</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3100669889061134</v>
+        <v>0.06833850687908742</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1183768231305897</v>
+        <v>0.04816794250318375</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3103439861172617</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1817706511897545</v>
+        <v>-0.5086038763877576</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2195834285682286</v>
+        <v>-0.06745472586396702</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09010883204250639</v>
+        <v>0.08508233838562838</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.3250175606789257</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6059194536631249</v>
+        <v>0.3059846944439327</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.07266855759660198</v>
+        <v>-0.3662506475722504</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05285031673072795</v>
+        <v>0.2465665773363123</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2980496014734739</v>
       </c>
       <c r="E13" t="n">
-        <v>1.128318820397894</v>
+        <v>0.7545844703756305</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3566683519516166</v>
+        <v>-0.5706865812612865</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2307586366560438</v>
+        <v>0.4517777965616208</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.2262746213515386</v>
       </c>
       <c r="E14" t="n">
-        <v>1.858281543832425</v>
+        <v>1.518304965720062</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8778149974243857</v>
+        <v>-1.090976178504692</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2344189772199519</v>
+        <v>0.4512331986237119</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.1085856297557184</v>
       </c>
       <c r="E15" t="n">
-        <v>2.66765482288339</v>
+        <v>2.343089052370567</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.262358083463646</v>
+        <v>-1.459936171269684</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4675346355587075</v>
+        <v>0.707384035692734</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.05230961202294915</v>
       </c>
       <c r="E16" t="n">
-        <v>3.375426275384199</v>
+        <v>3.069143227065736</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.734772703806156</v>
+        <v>-1.848076815804943</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6505706443792947</v>
+        <v>0.9127690006408606</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2509073085791844</v>
       </c>
       <c r="E17" t="n">
-        <v>4.075865366372466</v>
+        <v>3.845812888928437</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.017434364085852</v>
+        <v>-1.989837995119587</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7980252812244369</v>
+        <v>1.034348665218919</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4835409763544306</v>
       </c>
       <c r="E18" t="n">
-        <v>4.633351148779862</v>
+        <v>4.400142047363288</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.511558439492084</v>
+        <v>-2.451039446123918</v>
       </c>
       <c r="G18" t="n">
-        <v>1.008930688004289</v>
+        <v>1.254049401698405</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7429405479746939</v>
       </c>
       <c r="E19" t="n">
-        <v>5.084373144494377</v>
+        <v>4.864367257963891</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.816525254456593</v>
+        <v>-2.642223983339866</v>
       </c>
       <c r="G19" t="n">
-        <v>1.154265335021432</v>
+        <v>1.387966472644642</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.016065755325883</v>
       </c>
       <c r="E20" t="n">
-        <v>5.356289580849031</v>
+        <v>5.076865577210924</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.126329938770327</v>
+        <v>-2.873331345529577</v>
       </c>
       <c r="G20" t="n">
-        <v>1.348878065154834</v>
+        <v>1.601866438058948</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.287172110533727</v>
       </c>
       <c r="E21" t="n">
-        <v>5.758709495713378</v>
+        <v>5.529455664575075</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.464934801701282</v>
+        <v>-3.203373756431398</v>
       </c>
       <c r="G21" t="n">
-        <v>1.519713912127789</v>
+        <v>1.797469080797987</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.539835700465305</v>
       </c>
       <c r="E22" t="n">
-        <v>6.07758691886402</v>
+        <v>5.917407962906608</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.701796943441309</v>
+        <v>-3.379248959390123</v>
       </c>
       <c r="G22" t="n">
-        <v>1.569656317125412</v>
+        <v>1.865929275732605</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.762172478789567</v>
       </c>
       <c r="E23" t="n">
-        <v>6.100737441393467</v>
+        <v>5.930640378754513</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.918889304006387</v>
+        <v>-3.557609894223621</v>
       </c>
       <c r="G23" t="n">
-        <v>1.68580460280529</v>
+        <v>1.989006949651935</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.951896035491817</v>
       </c>
       <c r="E24" t="n">
-        <v>6.230159024267796</v>
+        <v>6.126681035920824</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.131266439261876</v>
+        <v>-3.71149385283708</v>
       </c>
       <c r="G24" t="n">
-        <v>1.806392894729621</v>
+        <v>2.115733283750447</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.108324778839591</v>
       </c>
       <c r="E25" t="n">
-        <v>6.165208784943723</v>
+        <v>6.012095001698219</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.308011830882783</v>
+        <v>-3.972237271176055</v>
       </c>
       <c r="G25" t="n">
-        <v>1.765726175253541</v>
+        <v>1.98133439693421</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.229107635587382</v>
       </c>
       <c r="E26" t="n">
-        <v>6.052094479196754</v>
+        <v>5.960293955480869</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.306962786329465</v>
+        <v>-3.923754184245295</v>
       </c>
       <c r="G26" t="n">
-        <v>1.709060248797283</v>
+        <v>1.884365302976509</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.310944183047502</v>
       </c>
       <c r="E27" t="n">
-        <v>5.896634398669159</v>
+        <v>5.76462561057774</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.302970284824875</v>
+        <v>-3.875842706142126</v>
       </c>
       <c r="G27" t="n">
-        <v>1.740534505493002</v>
+        <v>1.962105563576943</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.349383793240913</v>
       </c>
       <c r="E28" t="n">
-        <v>5.866856717855076</v>
+        <v>5.878813051671528</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.254264540560252</v>
+        <v>-3.854410660215677</v>
       </c>
       <c r="G28" t="n">
-        <v>1.71254100344601</v>
+        <v>1.875854682654602</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.342839468935575</v>
       </c>
       <c r="E29" t="n">
-        <v>5.597165394790967</v>
+        <v>5.654667928803315</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.221315635292715</v>
+        <v>-3.822172798368413</v>
       </c>
       <c r="G29" t="n">
-        <v>1.647968916577481</v>
+        <v>1.786829710359535</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.29311094000257</v>
       </c>
       <c r="E30" t="n">
-        <v>5.514052157215989</v>
+        <v>5.618336092109143</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.237873310667665</v>
+        <v>-3.930184236037657</v>
       </c>
       <c r="G30" t="n">
-        <v>1.675949278191656</v>
+        <v>1.820390375777162</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.203721690887124</v>
       </c>
       <c r="E31" t="n">
-        <v>5.256387250276695</v>
+        <v>5.344632556891217</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.190301293745633</v>
+        <v>-3.962110377617512</v>
       </c>
       <c r="G31" t="n">
-        <v>1.492946850477159</v>
+        <v>1.596562083344677</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.081527057316551</v>
       </c>
       <c r="E32" t="n">
-        <v>4.90562821701297</v>
+        <v>4.988443604777403</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.026548870085722</v>
+        <v>-3.75063482205816</v>
       </c>
       <c r="G32" t="n">
-        <v>1.41315668235709</v>
+        <v>1.56247142047005</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.936408148985516</v>
       </c>
       <c r="E33" t="n">
-        <v>4.657171833383037</v>
+        <v>4.726932931166655</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.913758695014934</v>
+        <v>-3.801778846634601</v>
       </c>
       <c r="G33" t="n">
-        <v>1.448812516785171</v>
+        <v>1.626008333242124</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.77821364732064</v>
       </c>
       <c r="E34" t="n">
-        <v>4.348237337731484</v>
+        <v>4.489435668507082</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.783931218771333</v>
+        <v>-3.777695353375062</v>
       </c>
       <c r="G34" t="n">
-        <v>1.358534823228105</v>
+        <v>1.477616345522618</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.617386652409827</v>
       </c>
       <c r="E35" t="n">
-        <v>3.976428791141129</v>
+        <v>4.050736478679836</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.703249691291763</v>
+        <v>-3.766602638004383</v>
       </c>
       <c r="G35" t="n">
-        <v>1.335172593725475</v>
+        <v>1.473974985583892</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.459668151427852</v>
       </c>
       <c r="E36" t="n">
-        <v>3.711259237014564</v>
+        <v>3.844906199063983</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.538744612840989</v>
+        <v>-3.631460586709874</v>
       </c>
       <c r="G36" t="n">
-        <v>1.183188887702334</v>
+        <v>1.330904873155748</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.30858926662772</v>
       </c>
       <c r="E37" t="n">
-        <v>3.343068689593481</v>
+        <v>3.51052306518789</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.436645639915881</v>
+        <v>-3.564682367175982</v>
       </c>
       <c r="G37" t="n">
-        <v>1.078458178093362</v>
+        <v>1.270929017677401</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.167194857703719</v>
       </c>
       <c r="E38" t="n">
-        <v>3.082695393445551</v>
+        <v>3.327633061176394</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.256750924562883</v>
+        <v>-3.412329268985842</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9650328821030285</v>
+        <v>1.131327979513256</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.036150976112904</v>
       </c>
       <c r="E39" t="n">
-        <v>2.680662391325295</v>
+        <v>2.901558907191236</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.124645043273419</v>
+        <v>-3.271148458787334</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8784987518510518</v>
+        <v>1.05655599668164</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9156660166661902</v>
       </c>
       <c r="E40" t="n">
-        <v>2.337939462753932</v>
+        <v>2.516639128744521</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.015242179773539</v>
+        <v>-3.110650482322059</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7838774152235316</v>
+        <v>0.9558856808134855</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8068901449343325</v>
       </c>
       <c r="E41" t="n">
-        <v>2.072875032089913</v>
+        <v>2.235845599997142</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.881258676639166</v>
+        <v>-3.054021057068074</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6944874309057375</v>
+        <v>0.8239396747899754</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7081483403749511</v>
       </c>
       <c r="E42" t="n">
-        <v>1.68326703922329</v>
+        <v>1.835141241639613</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.722987273512527</v>
+        <v>-2.817648031438501</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6409503875082974</v>
+        <v>0.744021022437906</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6184062263002056</v>
       </c>
       <c r="E43" t="n">
-        <v>1.560472614633596</v>
+        <v>1.731847219352095</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.69571722529458</v>
+        <v>-2.763908041356425</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5461202640037773</v>
+        <v>0.6106908908242146</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5378089063175875</v>
       </c>
       <c r="E44" t="n">
-        <v>1.320767759260569</v>
+        <v>1.461363090174622</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.63462881317096</v>
+        <v>-2.698459925633351</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4698371313980705</v>
+        <v>0.4966056530967906</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4643804343848186</v>
       </c>
       <c r="E45" t="n">
-        <v>1.131336739801802</v>
+        <v>1.291631039558395</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.514679292286401</v>
+        <v>-2.540344017628394</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3992321258179077</v>
+        <v>0.4352690327977162</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3966496491459591</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8778782314124155</v>
+        <v>1.002069922025109</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.501401614947677</v>
+        <v>-2.505517490515949</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4353318148656252</v>
+        <v>0.4826519734919762</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3338012069559874</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5020866736300619</v>
+        <v>0.6291239979719369</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.465063208037096</v>
+        <v>-2.459183594375006</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3419690396924685</v>
+        <v>0.3024265572463882</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2737454586819733</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3777051767655498</v>
+        <v>0.5370854864172343</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.366546463103032</v>
+        <v>-2.443342072588647</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2692528045728517</v>
+        <v>0.2627263896064898</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2154519937503934</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1524080759536103</v>
+        <v>0.3133710777358398</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.312704999678637</v>
+        <v>-2.394938558278842</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2104449875672311</v>
+        <v>0.1632985746636983</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1595562688467424</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06377439654690684</v>
+        <v>0.2264733955092268</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.171431476426357</v>
+        <v>-2.268888226446421</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1205031050710734</v>
+        <v>0.04815334202227466</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1058286148030796</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.003050544525893403</v>
+        <v>0.07637023142717618</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.130815858633458</v>
+        <v>-2.241789733879156</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1344115231850697</v>
+        <v>0.04624943931172972</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.05437556787803254</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.0711603279186933</v>
+        <v>-0.02888317539834101</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.028138706664349</v>
+        <v>-2.106134475680692</v>
       </c>
       <c r="G52" t="n">
-        <v>0.09292571672998992</v>
+        <v>-0.005142793440165569</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.005430830033998194</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2212196905580166</v>
+        <v>-0.2956587824249057</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.95765999524405</v>
+        <v>-2.04639222789689</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04609029406982067</v>
+        <v>0.02488747569364455</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.04118589876927673</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1015599892195033</v>
+        <v>-0.1084689367856833</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.966082282656457</v>
+        <v>-2.081193204167744</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.04130818465197404</v>
+        <v>-0.13759397610313</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.08508432538363858</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3066164433471755</v>
+        <v>-0.413289016917056</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.96693787083773</v>
+        <v>-2.13307674310223</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.07750861701796431</v>
+        <v>-0.1733315732243022</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1263685764055347</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3677866181638864</v>
+        <v>-0.5357257297244776</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.862413028009576</v>
+        <v>-1.958863804895005</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.08806622476332512</v>
+        <v>-0.1425727400931287</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1657328497150501</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3532226384570721</v>
+        <v>-0.5704617338552865</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.833584378454584</v>
+        <v>-1.954417958458188</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1058160294045022</v>
+        <v>-0.1835154086583904</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2035270519776416</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3617463992117971</v>
+        <v>-0.6226861940189997</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.824747437384359</v>
+        <v>-1.983702143017543</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1598947506436695</v>
+        <v>-0.2513726037314631</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2399611484832082</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4536286856207724</v>
+        <v>-0.838888655272669</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.774478711638418</v>
+        <v>-1.913493540494062</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1983173762040228</v>
+        <v>-0.2653219031920048</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2757978862378339</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3704804068916129</v>
+        <v>-0.7828125882451386</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.757761160997513</v>
+        <v>-1.912572980172744</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1810216465191183</v>
+        <v>-0.2442139879417377</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3110862506099362</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4965000777141245</v>
+        <v>-0.9536382148814563</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.801453100117956</v>
+        <v>-1.990572399309314</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2995687912123592</v>
+        <v>-0.3878578992696082</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3460740891734775</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.620459620680364</v>
+        <v>-1.093160410448692</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.753429198311787</v>
+        <v>-1.861573500357304</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3168090390698092</v>
+        <v>-0.4048017573646037</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.381013752175234</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6578076508458085</v>
+        <v>-1.13517475431268</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.893674847708068</v>
+        <v>-2.020087271467033</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3798699761642468</v>
+        <v>-0.5183015158075732</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4153776648729554</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7404069514927863</v>
+        <v>-1.227370951061201</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.903356426598883</v>
+        <v>-2.009699029300218</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4281245655687793</v>
+        <v>-0.5904497922198266</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4490144165063356</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.841813131598759</v>
+        <v>-1.391294930371793</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.833755934105265</v>
+        <v>-1.93148571311833</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4995924595706692</v>
+        <v>-0.633220440994906</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4820363014308107</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.948190775454276</v>
+        <v>-1.607168880805008</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.003377751090629</v>
+        <v>-2.114739999128508</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4960197218922156</v>
+        <v>-0.6617366402584438</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5137037431803119</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9741168494045418</v>
+        <v>-1.658175660860904</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.999574325813812</v>
+        <v>-2.063858783208431</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4962095281440337</v>
+        <v>-0.6844798093705287</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5434283611666625</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9569101826531827</v>
+        <v>-1.628370239133093</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.083041625050835</v>
+        <v>-2.171626392846493</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5664743425190149</v>
+        <v>-0.6892673070606182</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5705028308428315</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9420001715488231</v>
+        <v>-1.589719846070558</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.116392773567417</v>
+        <v>-2.238335990120111</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5209310624192998</v>
+        <v>-0.6814648100628021</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5935937952713929</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.00665110101426</v>
+        <v>-1.728478436486248</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.228798955990296</v>
+        <v>-2.346792742457082</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.57102969256265</v>
+        <v>-0.7102335976460672</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.612183480923209</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.033026869776526</v>
+        <v>-1.768619538649601</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.36490536904885</v>
+        <v>-2.524049150909808</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7034808752256144</v>
+        <v>-0.8811044857732031</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6254561042264981</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.049467011280158</v>
+        <v>-1.803585500354728</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.479036598291138</v>
+        <v>-2.713816711453529</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6218627268957272</v>
+        <v>-0.7578997876699635</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6327974357088391</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9545668054672742</v>
+        <v>-1.691848749981531</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.489110930118408</v>
+        <v>-2.752905118943337</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.698306464791434</v>
+        <v>-0.8640569642637531</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6340330943133297</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9640045563269081</v>
+        <v>-1.772617150322509</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.509252293532493</v>
+        <v>-2.852961484589264</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7587261748894177</v>
+        <v>-0.9000938712435617</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6288754068345196</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7700138066802329</v>
+        <v>-1.516866366430396</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.534650560097895</v>
+        <v>-2.823053859495091</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7755035875020496</v>
+        <v>-0.9654091225903623</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6171253097859832</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7260502986148811</v>
+        <v>-1.533427691925573</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.415516476072109</v>
+        <v>-2.68356305496181</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.752742897812874</v>
+        <v>-0.9236210861804643</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5991906127131449</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5516621546367461</v>
+        <v>-1.336562107587899</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.486749302331363</v>
+        <v>-2.698825667680124</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6444803318719939</v>
+        <v>-0.8047541909553145</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5755463739944562</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.3485694651913461</v>
+        <v>-1.071196907017152</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.39624457129616</v>
+        <v>-2.667574798342314</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.670336323513896</v>
+        <v>-0.8693846797474789</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5471814487304242</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1645596042941228</v>
+        <v>-0.8692751761406609</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.380721339993618</v>
+        <v>-2.588867985905699</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.581920191272738</v>
+        <v>-0.7992074682579523</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5154892087369849</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01626151157255596</v>
+        <v>-0.6240206779740903</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.311455928536864</v>
+        <v>-2.579669682932974</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5323354980573877</v>
+        <v>-0.7410975542397862</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4811788579953539</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1457911380056121</v>
+        <v>-0.5242774926436625</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.194515566767669</v>
+        <v>-2.482941496910273</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4324477679659599</v>
+        <v>-0.7094145106670674</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4451950142695619</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3902703506359101</v>
+        <v>-0.2374393647999214</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.1123725311491</v>
+        <v>-2.429992122869423</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3808204674714283</v>
+        <v>-0.6574397187268995</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4085478950903397</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6191693900881213</v>
+        <v>-0.003386355586802403</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.061508105782068</v>
+        <v>-2.348841189928627</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3569735020026166</v>
+        <v>-0.644478871823903</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3720040787419692</v>
       </c>
       <c r="E84" t="n">
-        <v>1.004169471179836</v>
+        <v>0.3529778022979201</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.014403304249126</v>
+        <v>-2.32211865974477</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3205803432886263</v>
+        <v>-0.5887999378770997</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.337187485837334</v>
       </c>
       <c r="E85" t="n">
-        <v>1.134540085313256</v>
+        <v>0.4391381602386242</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.839908576760355</v>
+        <v>-2.076892632515973</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3065828622410846</v>
+        <v>-0.5652727229401969</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3054791010205578</v>
       </c>
       <c r="E86" t="n">
-        <v>1.454078910249079</v>
+        <v>0.7489705854660865</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.854798877215487</v>
+        <v>-2.161868161430905</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2171476164324723</v>
+        <v>-0.453362956868227</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2768843966532531</v>
       </c>
       <c r="E87" t="n">
-        <v>1.683189656674472</v>
+        <v>1.00012659801611</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.733527282784611</v>
+        <v>-2.046590794437254</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1660225724812133</v>
+        <v>-0.4208914873264176</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2511773028868245</v>
       </c>
       <c r="E88" t="n">
-        <v>1.856846316559062</v>
+        <v>1.119787759402714</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.549645906119387</v>
+        <v>-1.816577738291679</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1545816356408527</v>
+        <v>-0.3629523989348877</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2281387265668878</v>
       </c>
       <c r="E89" t="n">
-        <v>2.077027408860457</v>
+        <v>1.399413249677366</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.487833310142677</v>
+        <v>-1.731324070215429</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.03862607630897476</v>
+        <v>-0.2380803259118303</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.207580866552661</v>
       </c>
       <c r="E90" t="n">
-        <v>2.237152343038505</v>
+        <v>1.619762247509216</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.262419405483464</v>
+        <v>-1.515248633145669</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.009244068527528104</v>
+        <v>-0.1833825442821177</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1900127067391902</v>
       </c>
       <c r="E91" t="n">
-        <v>2.301810572744397</v>
+        <v>1.64252001710221</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.067285438181608</v>
+        <v>-1.297282433798182</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02100082767564559</v>
+        <v>-0.1025907831716849</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1767739160150243</v>
       </c>
       <c r="E92" t="n">
-        <v>2.291239824566218</v>
+        <v>1.615411304198308</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8991346196478346</v>
+        <v>-1.10654175120187</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02678115806755313</v>
+        <v>-0.1220225632135887</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1690844749123293</v>
       </c>
       <c r="E93" t="n">
-        <v>2.330186607391207</v>
+        <v>1.726421680646279</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6640873176848068</v>
+        <v>-0.837257781555124</v>
       </c>
       <c r="G93" t="n">
-        <v>0.025248107572099</v>
+        <v>-0.113526543372591</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1682581531696588</v>
       </c>
       <c r="E94" t="n">
-        <v>2.289163636180946</v>
+        <v>1.689924858517834</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.53733616276875</v>
+        <v>-0.7667286984756884</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02257868774179725</v>
+        <v>-0.1249338991068607</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1750909602773016</v>
       </c>
       <c r="E95" t="n">
-        <v>2.221710874429055</v>
+        <v>1.689410921589834</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3496951622694367</v>
+        <v>-0.5077964697934851</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01509156113161744</v>
+        <v>-0.1078279756737744</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1892211177421455</v>
       </c>
       <c r="E96" t="n">
-        <v>2.073343707527095</v>
+        <v>1.568225469996321</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1847549894875719</v>
+        <v>-0.2925722407607247</v>
       </c>
       <c r="G96" t="n">
-        <v>0.003541572604559372</v>
+        <v>-0.06096189200369603</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2090486549987187</v>
       </c>
       <c r="E97" t="n">
-        <v>1.94505366192322</v>
+        <v>1.447759822111626</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.0707427541646934</v>
+        <v>-0.09263617528786934</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05607803113960644</v>
+        <v>-0.1888051628917526</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2341923496253828</v>
       </c>
       <c r="E98" t="n">
-        <v>1.798272107247987</v>
+        <v>1.388090576732369</v>
       </c>
       <c r="F98" t="n">
-        <v>0.03897401967473168</v>
+        <v>0.06340208428372511</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04302958135115539</v>
+        <v>-0.1332474129364948</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.26166842948423</v>
       </c>
       <c r="E99" t="n">
-        <v>1.589327545054225</v>
+        <v>1.210696193735053</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08520352237717381</v>
+        <v>0.09317976509780802</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1098574425201374</v>
+        <v>-0.2186543860622901</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2900997135344797</v>
       </c>
       <c r="E100" t="n">
-        <v>1.463886053275713</v>
+        <v>1.165374840945157</v>
       </c>
       <c r="F100" t="n">
-        <v>0.201379548970779</v>
+        <v>0.2305878110294075</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1596888838628513</v>
+        <v>-0.2575033456651887</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3159843897564741</v>
       </c>
       <c r="E101" t="n">
-        <v>1.299420396123393</v>
+        <v>1.030872290714465</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2227342123484096</v>
+        <v>0.2077906201379591</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.05125549229533501</v>
+        <v>-0.07426731025614701</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3412765891836868</v>
       </c>
       <c r="E102" t="n">
-        <v>1.170049914932246</v>
+        <v>1.003286142084836</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2002377913636884</v>
+        <v>0.1816323985412388</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1656634006508498</v>
+        <v>-0.2115687726771101</v>
       </c>
     </row>
   </sheetData>
